--- a/dat/xlsxs/dat1src.xlsx
+++ b/dat/xlsxs/dat1src.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>试样</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
   </si>
   <si>
     <t>纯水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -511,9 +507,7 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <v>2.8</v>
       </c>
@@ -526,7 +520,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>669.5</v>
@@ -543,7 +537,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>72.8</v>
